--- a/Docs/EstDesc_2017-02-22.xlsx
+++ b/Docs/EstDesc_2017-02-22.xlsx
@@ -428,13 +428,13 @@
         <v>4.904418604651163</v>
       </c>
       <c r="D3">
-        <v>4.926222350942577</v>
+        <v>4.923518868740879</v>
       </c>
       <c r="E3">
-        <v>4.935710967369742</v>
+        <v>4.936486611584586</v>
       </c>
       <c r="F3">
-        <v>4.913180942603001</v>
+        <v>4.944198945153026</v>
       </c>
     </row>
     <row r="4">
@@ -452,13 +452,13 @@
         <v>4.785</v>
       </c>
       <c r="D4">
-        <v>4.801639555555532</v>
+        <v>4.807260111111099</v>
       </c>
       <c r="E4">
-        <v>4.885281397532779</v>
+        <v>4.862892824968936</v>
       </c>
       <c r="F4">
-        <v>4.924209326495801</v>
+        <v>4.856060732096701</v>
       </c>
     </row>
     <row r="5">
@@ -476,13 +476,13 @@
         <v>1.145</v>
       </c>
       <c r="D5">
-        <v>0.6482</v>
+        <v>0.6467000000000001</v>
       </c>
       <c r="E5">
-        <v>0.4329</v>
+        <v>0.4766</v>
       </c>
       <c r="F5">
-        <v>0.2526</v>
+        <v>0.4191</v>
       </c>
     </row>
     <row r="6">
@@ -500,13 +500,13 @@
         <v>23.34696424693144</v>
       </c>
       <c r="D6">
-        <v>13.15771822617832</v>
+        <v>13.13590438881667</v>
       </c>
       <c r="E6">
-        <v>8.77076701411905</v>
+        <v>9.655470901315129</v>
       </c>
       <c r="F6">
-        <v>5.142177635567646</v>
+        <v>8.477216241581088</v>
       </c>
     </row>
     <row r="7">
@@ -524,13 +524,13 @@
         <v>2.93</v>
       </c>
       <c r="D7">
-        <v>3.446054555555546</v>
+        <v>3.47871188888888</v>
       </c>
       <c r="E7">
-        <v>2.930000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F7">
-        <v>3.968528028228733</v>
+        <v>3.96118911207977</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>4.0875</v>
       </c>
       <c r="D8">
-        <v>4.544270666666662</v>
+        <v>4.543089111111101</v>
       </c>
       <c r="E8">
-        <v>4.685123050034878</v>
+        <v>4.659630134082814</v>
       </c>
       <c r="F8">
-        <v>4.8106052718433</v>
+        <v>4.69130667993336</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +572,13 @@
         <v>5.390000000000001</v>
       </c>
       <c r="D9">
-        <v>5.257968333333341</v>
+        <v>5.25858233333331</v>
       </c>
       <c r="E9">
-        <v>5.18688536233037</v>
+        <v>5.197870542858194</v>
       </c>
       <c r="F9">
-        <v>4.997639577667327</v>
+        <v>5.188806847173055</v>
       </c>
     </row>
     <row r="10">
@@ -596,13 +596,13 @@
         <v>9.619999999999999</v>
       </c>
       <c r="D10">
-        <v>7.884276888888982</v>
+        <v>7.823901111111204</v>
       </c>
       <c r="E10">
         <v>9.619999999999999</v>
       </c>
       <c r="F10">
-        <v>7.106743986512096</v>
+        <v>6.598489305757688</v>
       </c>
     </row>
     <row r="11">
@@ -620,13 +620,13 @@
         <v>1.301937673126782</v>
       </c>
       <c r="D11">
-        <v>0.9038423988464615</v>
+        <v>0.8844262703851711</v>
       </c>
       <c r="E11">
-        <v>0.6710657649037649</v>
+        <v>0.8830610879120235</v>
       </c>
       <c r="F11">
-        <v>1.077191780403614</v>
+        <v>0.6681082663977199</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +644,13 @@
         <v>3.231633568420891</v>
       </c>
       <c r="D12">
-        <v>1.452714654335968</v>
+        <v>1.409675990539308</v>
       </c>
       <c r="E12">
-        <v>3.840807370379293</v>
+        <v>3.277616288540779</v>
       </c>
       <c r="F12">
-        <v>7.345040953447038</v>
+        <v>0.6018172495518019</v>
       </c>
     </row>
   </sheetData>
